--- a/natmiOut/YoungD2/LR-pairs_lrc2p/Tnfsf10-Tnfrsf10b.xlsx
+++ b/natmiOut/YoungD2/LR-pairs_lrc2p/Tnfsf10-Tnfrsf10b.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="116" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="164" uniqueCount="28">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -455,7 +455,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T25"/>
+  <dimension ref="A1:T37"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -537,52 +537,52 @@
         <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>12.197034268186</v>
+        <v>15.77467133333333</v>
       </c>
       <c r="H2">
-        <v>12.197034268186</v>
+        <v>47.324014</v>
       </c>
       <c r="I2">
-        <v>0.6244152851147226</v>
+        <v>0.6679291979451994</v>
       </c>
       <c r="J2">
-        <v>0.6244152851147226</v>
+        <v>0.6679291979451996</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>6.30576633262227</v>
+        <v>9.406579333333333</v>
       </c>
       <c r="N2">
-        <v>6.30576633262227</v>
+        <v>28.219738</v>
       </c>
       <c r="O2">
-        <v>0.4541792586947799</v>
+        <v>0.5338425959005011</v>
       </c>
       <c r="P2">
-        <v>0.4541792586947799</v>
+        <v>0.5338425959005011</v>
       </c>
       <c r="Q2">
-        <v>76.91164804616739</v>
+        <v>148.3856973542591</v>
       </c>
       <c r="R2">
-        <v>76.91164804616739</v>
+        <v>1335.471276188332</v>
       </c>
       <c r="S2">
-        <v>0.2835964713110943</v>
+        <v>0.3565690569088049</v>
       </c>
       <c r="T2">
-        <v>0.2835964713110943</v>
+        <v>0.356569056908805</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -599,52 +599,52 @@
         <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>12.197034268186</v>
+        <v>15.77467133333333</v>
       </c>
       <c r="H3">
-        <v>12.197034268186</v>
+        <v>47.324014</v>
       </c>
       <c r="I3">
-        <v>0.6244152851147226</v>
+        <v>0.6679291979451994</v>
       </c>
       <c r="J3">
-        <v>0.6244152851147226</v>
+        <v>0.6679291979451996</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>5.36147723689372</v>
+        <v>5.394797999999999</v>
       </c>
       <c r="N3">
-        <v>5.36147723689372</v>
+        <v>16.184394</v>
       </c>
       <c r="O3">
-        <v>0.386165872395829</v>
+        <v>0.3061658086987375</v>
       </c>
       <c r="P3">
-        <v>0.386165872395829</v>
+        <v>0.3061658086987375</v>
       </c>
       <c r="Q3">
-        <v>65.39412158649189</v>
+        <v>85.10116535972398</v>
       </c>
       <c r="R3">
-        <v>65.39412158649189</v>
+        <v>765.9104882375159</v>
       </c>
       <c r="S3">
-        <v>0.2411278733136171</v>
+        <v>0.2044970830423911</v>
       </c>
       <c r="T3">
-        <v>0.2411278733136171</v>
+        <v>0.2044970830423911</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -658,55 +658,55 @@
         <v>27</v>
       </c>
       <c r="D4" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>12.197034268186</v>
+        <v>15.77467133333333</v>
       </c>
       <c r="H4">
-        <v>12.197034268186</v>
+        <v>47.324014</v>
       </c>
       <c r="I4">
-        <v>0.6244152851147226</v>
+        <v>0.6679291979451994</v>
       </c>
       <c r="J4">
-        <v>0.6244152851147226</v>
+        <v>0.6679291979451996</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L4">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M4">
-        <v>0.32728002541288</v>
+        <v>0.08490933333333334</v>
       </c>
       <c r="N4">
-        <v>0.32728002541288</v>
+        <v>0.254728</v>
       </c>
       <c r="O4">
-        <v>0.02357267800404152</v>
+        <v>0.004818778146294018</v>
       </c>
       <c r="P4">
-        <v>0.02357267800404152</v>
+        <v>0.004818778146294018</v>
       </c>
       <c r="Q4">
-        <v>3.991845685253682</v>
+        <v>1.339416826465778</v>
       </c>
       <c r="R4">
-        <v>3.991845685253682</v>
+        <v>12.054751438192</v>
       </c>
       <c r="S4">
-        <v>0.01471914045681113</v>
+        <v>0.003218602622330018</v>
       </c>
       <c r="T4">
-        <v>0.01471914045681113</v>
+        <v>0.003218602622330019</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -720,60 +720,60 @@
         <v>27</v>
       </c>
       <c r="D5" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>12.197034268186</v>
+        <v>15.77467133333333</v>
       </c>
       <c r="H5">
-        <v>12.197034268186</v>
+        <v>47.324014</v>
       </c>
       <c r="I5">
-        <v>0.6244152851147226</v>
+        <v>0.6679291979451994</v>
       </c>
       <c r="J5">
-        <v>0.6244152851147226</v>
+        <v>0.6679291979451996</v>
       </c>
       <c r="K5">
         <v>1</v>
       </c>
       <c r="L5">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M5">
-        <v>1.88934761210022</v>
+        <v>0.4642293333333333</v>
       </c>
       <c r="N5">
-        <v>1.88934761210022</v>
+        <v>1.392688</v>
       </c>
       <c r="O5">
-        <v>0.1360821909053496</v>
+        <v>0.02634596314109922</v>
       </c>
       <c r="P5">
-        <v>0.1360821909053496</v>
+        <v>0.02634596314109922</v>
       </c>
       <c r="Q5">
-        <v>23.04443756930177</v>
+        <v>7.323065156625777</v>
       </c>
       <c r="R5">
-        <v>23.04443756930177</v>
+        <v>65.90758640963199</v>
       </c>
       <c r="S5">
-        <v>0.0849718000332</v>
+        <v>0.01759723802992819</v>
       </c>
       <c r="T5">
-        <v>0.0849718000332</v>
+        <v>0.01759723802992819</v>
       </c>
     </row>
     <row r="6" spans="1:20">
       <c r="A6" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B6" t="s">
         <v>26</v>
@@ -782,60 +782,60 @@
         <v>27</v>
       </c>
       <c r="D6" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>1.45610163842991</v>
+        <v>15.77467133333333</v>
       </c>
       <c r="H6">
-        <v>1.45610163842991</v>
+        <v>47.324014</v>
       </c>
       <c r="I6">
-        <v>0.0745437046190614</v>
+        <v>0.6679291979451994</v>
       </c>
       <c r="J6">
-        <v>0.0745437046190614</v>
+        <v>0.6679291979451996</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>6.30576633262227</v>
+        <v>0.3736923333333333</v>
       </c>
       <c r="N6">
-        <v>6.30576633262227</v>
+        <v>1.121077</v>
       </c>
       <c r="O6">
-        <v>0.4541792586947799</v>
+        <v>0.02120780341349541</v>
       </c>
       <c r="P6">
-        <v>0.4541792586947799</v>
+        <v>0.02120780341349541</v>
       </c>
       <c r="Q6">
-        <v>9.181836688487452</v>
+        <v>5.894873738119777</v>
       </c>
       <c r="R6">
-        <v>9.181836688487452</v>
+        <v>53.053863643078</v>
       </c>
       <c r="S6">
-        <v>0.03385620450424794</v>
+        <v>0.01416531112415545</v>
       </c>
       <c r="T6">
-        <v>0.03385620450424794</v>
+        <v>0.01416531112415545</v>
       </c>
     </row>
     <row r="7" spans="1:20">
       <c r="A7" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B7" t="s">
         <v>26</v>
@@ -844,55 +844,55 @@
         <v>27</v>
       </c>
       <c r="D7" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>1.45610163842991</v>
+        <v>15.77467133333333</v>
       </c>
       <c r="H7">
-        <v>1.45610163842991</v>
+        <v>47.324014</v>
       </c>
       <c r="I7">
-        <v>0.0745437046190614</v>
+        <v>0.6679291979451994</v>
       </c>
       <c r="J7">
-        <v>0.0745437046190614</v>
+        <v>0.6679291979451996</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>5.36147723689372</v>
+        <v>1.896302666666666</v>
       </c>
       <c r="N7">
-        <v>5.36147723689372</v>
+        <v>5.688908</v>
       </c>
       <c r="O7">
-        <v>0.386165872395829</v>
+        <v>0.1076190506998728</v>
       </c>
       <c r="P7">
-        <v>0.386165872395829</v>
+        <v>0.1076190506998728</v>
       </c>
       <c r="Q7">
-        <v>7.806855789045612</v>
+        <v>29.91355131519022</v>
       </c>
       <c r="R7">
-        <v>7.806855789045612</v>
+        <v>269.221961836712</v>
       </c>
       <c r="S7">
-        <v>0.02878623472583684</v>
+        <v>0.0718819062175898</v>
       </c>
       <c r="T7">
-        <v>0.02878623472583684</v>
+        <v>0.07188190621758982</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -906,55 +906,55 @@
         <v>27</v>
       </c>
       <c r="D8" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F8">
         <v>1</v>
       </c>
       <c r="G8">
-        <v>1.45610163842991</v>
+        <v>1.503082</v>
       </c>
       <c r="H8">
-        <v>1.45610163842991</v>
+        <v>4.509246</v>
       </c>
       <c r="I8">
-        <v>0.0745437046190614</v>
+        <v>0.06364331360644089</v>
       </c>
       <c r="J8">
-        <v>0.0745437046190614</v>
+        <v>0.0636433136064409</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L8">
         <v>1</v>
       </c>
       <c r="M8">
-        <v>0.32728002541288</v>
+        <v>9.406579333333333</v>
       </c>
       <c r="N8">
-        <v>0.32728002541288</v>
+        <v>28.219738</v>
       </c>
       <c r="O8">
-        <v>0.02357267800404152</v>
+        <v>0.5338425959005011</v>
       </c>
       <c r="P8">
-        <v>0.02357267800404152</v>
+        <v>0.5338425959005011</v>
       </c>
       <c r="Q8">
-        <v>0.4765529812290771</v>
+        <v>14.13886007750533</v>
       </c>
       <c r="R8">
-        <v>0.4765529812290771</v>
+        <v>127.249740697548</v>
       </c>
       <c r="S8">
-        <v>0.001757194746213517</v>
+        <v>0.03397551174737209</v>
       </c>
       <c r="T8">
-        <v>0.001757194746213517</v>
+        <v>0.03397551174737209</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -968,122 +968,122 @@
         <v>27</v>
       </c>
       <c r="D9" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="E9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F9">
         <v>1</v>
       </c>
       <c r="G9">
-        <v>1.45610163842991</v>
+        <v>1.503082</v>
       </c>
       <c r="H9">
-        <v>1.45610163842991</v>
+        <v>4.509246</v>
       </c>
       <c r="I9">
-        <v>0.0745437046190614</v>
+        <v>0.06364331360644089</v>
       </c>
       <c r="J9">
-        <v>0.0745437046190614</v>
+        <v>0.0636433136064409</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L9">
         <v>1</v>
       </c>
       <c r="M9">
-        <v>1.88934761210022</v>
+        <v>5.394797999999999</v>
       </c>
       <c r="N9">
-        <v>1.88934761210022</v>
+        <v>16.184394</v>
       </c>
       <c r="O9">
-        <v>0.1360821909053496</v>
+        <v>0.3061658086987375</v>
       </c>
       <c r="P9">
-        <v>0.1360821909053496</v>
+        <v>0.3061658086987375</v>
       </c>
       <c r="Q9">
-        <v>2.751082153542768</v>
+        <v>8.108823767435998</v>
       </c>
       <c r="R9">
-        <v>2.751082153542768</v>
+        <v>72.97941390692399</v>
       </c>
       <c r="S9">
-        <v>0.01014407064276311</v>
+        <v>0.01948540657858334</v>
       </c>
       <c r="T9">
-        <v>0.01014407064276311</v>
+        <v>0.01948540657858334</v>
       </c>
     </row>
     <row r="10" spans="1:20">
       <c r="A10" t="s">
+        <v>21</v>
+      </c>
+      <c r="B10" t="s">
+        <v>26</v>
+      </c>
+      <c r="C10" t="s">
+        <v>27</v>
+      </c>
+      <c r="D10" t="s">
         <v>22</v>
       </c>
-      <c r="B10" t="s">
-        <v>26</v>
-      </c>
-      <c r="C10" t="s">
-        <v>27</v>
-      </c>
-      <c r="D10" t="s">
-        <v>20</v>
-      </c>
       <c r="E10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F10">
         <v>1</v>
       </c>
       <c r="G10">
-        <v>2.55206211804838</v>
+        <v>1.503082</v>
       </c>
       <c r="H10">
-        <v>2.55206211804838</v>
+        <v>4.509246</v>
       </c>
       <c r="I10">
-        <v>0.1306503335182202</v>
+        <v>0.06364331360644089</v>
       </c>
       <c r="J10">
-        <v>0.1306503335182202</v>
+        <v>0.0636433136064409</v>
       </c>
       <c r="K10">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L10">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M10">
-        <v>6.30576633262227</v>
+        <v>0.08490933333333334</v>
       </c>
       <c r="N10">
-        <v>6.30576633262227</v>
+        <v>0.254728</v>
       </c>
       <c r="O10">
-        <v>0.4541792586947799</v>
+        <v>0.004818778146294018</v>
       </c>
       <c r="P10">
-        <v>0.4541792586947799</v>
+        <v>0.004818778146294018</v>
       </c>
       <c r="Q10">
-        <v>16.09270738275016</v>
+        <v>0.1276256905653333</v>
       </c>
       <c r="R10">
-        <v>16.09270738275016</v>
+        <v>1.148631215088</v>
       </c>
       <c r="S10">
-        <v>0.05933867162553101</v>
+        <v>0.0003066830087644541</v>
       </c>
       <c r="T10">
-        <v>0.05933867162553101</v>
+        <v>0.0003066830087644541</v>
       </c>
     </row>
     <row r="11" spans="1:20">
       <c r="A11" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B11" t="s">
         <v>26</v>
@@ -1092,60 +1092,60 @@
         <v>27</v>
       </c>
       <c r="D11" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="E11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F11">
         <v>1</v>
       </c>
       <c r="G11">
-        <v>2.55206211804838</v>
+        <v>1.503082</v>
       </c>
       <c r="H11">
-        <v>2.55206211804838</v>
+        <v>4.509246</v>
       </c>
       <c r="I11">
-        <v>0.1306503335182202</v>
+        <v>0.06364331360644089</v>
       </c>
       <c r="J11">
-        <v>0.1306503335182202</v>
+        <v>0.0636433136064409</v>
       </c>
       <c r="K11">
         <v>1</v>
       </c>
       <c r="L11">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M11">
-        <v>5.36147723689372</v>
+        <v>0.4642293333333333</v>
       </c>
       <c r="N11">
-        <v>5.36147723689372</v>
+        <v>1.392688</v>
       </c>
       <c r="O11">
-        <v>0.386165872395829</v>
+        <v>0.02634596314109922</v>
       </c>
       <c r="P11">
-        <v>0.386165872395829</v>
+        <v>0.02634596314109922</v>
       </c>
       <c r="Q11">
-        <v>13.68282295305516</v>
+        <v>0.6977747548053334</v>
       </c>
       <c r="R11">
-        <v>13.68282295305516</v>
+        <v>6.279972793248</v>
       </c>
       <c r="S11">
-        <v>0.05045270002186953</v>
+        <v>0.00167674439445271</v>
       </c>
       <c r="T11">
-        <v>0.05045270002186953</v>
+        <v>0.00167674439445271</v>
       </c>
     </row>
     <row r="12" spans="1:20">
       <c r="A12" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B12" t="s">
         <v>26</v>
@@ -1157,57 +1157,57 @@
         <v>24</v>
       </c>
       <c r="E12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F12">
         <v>1</v>
       </c>
       <c r="G12">
-        <v>2.55206211804838</v>
+        <v>1.503082</v>
       </c>
       <c r="H12">
-        <v>2.55206211804838</v>
+        <v>4.509246</v>
       </c>
       <c r="I12">
-        <v>0.1306503335182202</v>
+        <v>0.06364331360644089</v>
       </c>
       <c r="J12">
-        <v>0.1306503335182202</v>
+        <v>0.0636433136064409</v>
       </c>
       <c r="K12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L12">
         <v>1</v>
       </c>
       <c r="M12">
-        <v>0.32728002541288</v>
+        <v>0.3736923333333333</v>
       </c>
       <c r="N12">
-        <v>0.32728002541288</v>
+        <v>1.121077</v>
       </c>
       <c r="O12">
-        <v>0.02357267800404152</v>
+        <v>0.02120780341349541</v>
       </c>
       <c r="P12">
-        <v>0.02357267800404152</v>
+        <v>0.02120780341349541</v>
       </c>
       <c r="Q12">
-        <v>0.835238954850122</v>
+        <v>0.5616902197713334</v>
       </c>
       <c r="R12">
-        <v>0.835238954850122</v>
+        <v>5.055211977942</v>
       </c>
       <c r="S12">
-        <v>0.003079778243145638</v>
+        <v>0.001349734883548836</v>
       </c>
       <c r="T12">
-        <v>0.003079778243145638</v>
+        <v>0.001349734883548836</v>
       </c>
     </row>
     <row r="13" spans="1:20">
       <c r="A13" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B13" t="s">
         <v>26</v>
@@ -1219,57 +1219,57 @@
         <v>25</v>
       </c>
       <c r="E13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F13">
         <v>1</v>
       </c>
       <c r="G13">
-        <v>2.55206211804838</v>
+        <v>1.503082</v>
       </c>
       <c r="H13">
-        <v>2.55206211804838</v>
+        <v>4.509246</v>
       </c>
       <c r="I13">
-        <v>0.1306503335182202</v>
+        <v>0.06364331360644089</v>
       </c>
       <c r="J13">
-        <v>0.1306503335182202</v>
+        <v>0.0636433136064409</v>
       </c>
       <c r="K13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L13">
         <v>1</v>
       </c>
       <c r="M13">
-        <v>1.88934761210022</v>
+        <v>1.896302666666666</v>
       </c>
       <c r="N13">
-        <v>1.88934761210022</v>
+        <v>5.688908</v>
       </c>
       <c r="O13">
-        <v>0.1360821909053496</v>
+        <v>0.1076190506998728</v>
       </c>
       <c r="P13">
-        <v>0.1360821909053496</v>
+        <v>0.1076190506998728</v>
       </c>
       <c r="Q13">
-        <v>4.821732468666136</v>
+        <v>2.850298404818667</v>
       </c>
       <c r="R13">
-        <v>4.821732468666136</v>
+        <v>25.652685643368</v>
       </c>
       <c r="S13">
-        <v>0.01777918362767405</v>
+        <v>0.006849232993719468</v>
       </c>
       <c r="T13">
-        <v>0.01777918362767405</v>
+        <v>0.00684923299371947</v>
       </c>
     </row>
     <row r="14" spans="1:20">
       <c r="A14" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B14" t="s">
         <v>26</v>
@@ -1281,57 +1281,57 @@
         <v>20</v>
       </c>
       <c r="E14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F14">
         <v>1</v>
       </c>
       <c r="G14">
-        <v>2.77347401256083</v>
+        <v>2.782582666666667</v>
       </c>
       <c r="H14">
-        <v>2.77347401256083</v>
+        <v>8.347748000000001</v>
       </c>
       <c r="I14">
-        <v>0.1419852997239308</v>
+        <v>0.1178197738317093</v>
       </c>
       <c r="J14">
-        <v>0.1419852997239308</v>
+        <v>0.1178197738317093</v>
       </c>
       <c r="K14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L14">
         <v>1</v>
       </c>
       <c r="M14">
-        <v>6.30576633262227</v>
+        <v>9.406579333333333</v>
       </c>
       <c r="N14">
-        <v>6.30576633262227</v>
+        <v>28.219738</v>
       </c>
       <c r="O14">
-        <v>0.4541792586947799</v>
+        <v>0.5338425959005011</v>
       </c>
       <c r="P14">
-        <v>0.4541792586947799</v>
+        <v>0.5338425959005011</v>
       </c>
       <c r="Q14">
-        <v>17.48887905280888</v>
+        <v>26.17458460555822</v>
       </c>
       <c r="R14">
-        <v>17.48887905280888</v>
+        <v>235.571261450024</v>
       </c>
       <c r="S14">
-        <v>0.06448677817417103</v>
+        <v>0.06289721391072961</v>
       </c>
       <c r="T14">
-        <v>0.06448677817417103</v>
+        <v>0.06289721391072962</v>
       </c>
     </row>
     <row r="15" spans="1:20">
       <c r="A15" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B15" t="s">
         <v>26</v>
@@ -1343,57 +1343,57 @@
         <v>21</v>
       </c>
       <c r="E15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F15">
         <v>1</v>
       </c>
       <c r="G15">
-        <v>2.77347401256083</v>
+        <v>2.782582666666667</v>
       </c>
       <c r="H15">
-        <v>2.77347401256083</v>
+        <v>8.347748000000001</v>
       </c>
       <c r="I15">
-        <v>0.1419852997239308</v>
+        <v>0.1178197738317093</v>
       </c>
       <c r="J15">
-        <v>0.1419852997239308</v>
+        <v>0.1178197738317093</v>
       </c>
       <c r="K15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L15">
         <v>1</v>
       </c>
       <c r="M15">
-        <v>5.36147723689372</v>
+        <v>5.394797999999999</v>
       </c>
       <c r="N15">
-        <v>5.36147723689372</v>
+        <v>16.184394</v>
       </c>
       <c r="O15">
-        <v>0.386165872395829</v>
+        <v>0.3061658086987375</v>
       </c>
       <c r="P15">
-        <v>0.386165872395829</v>
+        <v>0.3061658086987375</v>
       </c>
       <c r="Q15">
-        <v>14.86991778546118</v>
+        <v>15.011471404968</v>
       </c>
       <c r="R15">
-        <v>14.86991778546118</v>
+        <v>135.103242644712</v>
       </c>
       <c r="S15">
-        <v>0.054829877135275</v>
+        <v>0.03607238633588762</v>
       </c>
       <c r="T15">
-        <v>0.054829877135275</v>
+        <v>0.03607238633588763</v>
       </c>
     </row>
     <row r="16" spans="1:20">
       <c r="A16" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B16" t="s">
         <v>26</v>
@@ -1402,184 +1402,184 @@
         <v>27</v>
       </c>
       <c r="D16" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="E16">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F16">
         <v>1</v>
       </c>
       <c r="G16">
-        <v>2.77347401256083</v>
+        <v>2.782582666666667</v>
       </c>
       <c r="H16">
-        <v>2.77347401256083</v>
+        <v>8.347748000000001</v>
       </c>
       <c r="I16">
-        <v>0.1419852997239308</v>
+        <v>0.1178197738317093</v>
       </c>
       <c r="J16">
-        <v>0.1419852997239308</v>
+        <v>0.1178197738317093</v>
       </c>
       <c r="K16">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L16">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M16">
-        <v>0.32728002541288</v>
+        <v>0.08490933333333334</v>
       </c>
       <c r="N16">
-        <v>0.32728002541288</v>
+        <v>0.254728</v>
       </c>
       <c r="O16">
-        <v>0.02357267800404152</v>
+        <v>0.004818778146294018</v>
       </c>
       <c r="P16">
-        <v>0.02357267800404152</v>
+        <v>0.004818778146294018</v>
       </c>
       <c r="Q16">
-        <v>0.9077026453128706</v>
+        <v>0.2362672391715556</v>
       </c>
       <c r="R16">
-        <v>0.9077026453128706</v>
+        <v>2.126405152544</v>
       </c>
       <c r="S16">
-        <v>0.003346973751699546</v>
+        <v>0.0005677473513415445</v>
       </c>
       <c r="T16">
-        <v>0.003346973751699546</v>
+        <v>0.0005677473513415446</v>
       </c>
     </row>
     <row r="17" spans="1:20">
       <c r="A17" t="s">
+        <v>22</v>
+      </c>
+      <c r="B17" t="s">
+        <v>26</v>
+      </c>
+      <c r="C17" t="s">
+        <v>27</v>
+      </c>
+      <c r="D17" t="s">
         <v>23</v>
       </c>
-      <c r="B17" t="s">
-        <v>26</v>
-      </c>
-      <c r="C17" t="s">
-        <v>27</v>
-      </c>
-      <c r="D17" t="s">
-        <v>25</v>
-      </c>
       <c r="E17">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F17">
         <v>1</v>
       </c>
       <c r="G17">
-        <v>2.77347401256083</v>
+        <v>2.782582666666667</v>
       </c>
       <c r="H17">
-        <v>2.77347401256083</v>
+        <v>8.347748000000001</v>
       </c>
       <c r="I17">
-        <v>0.1419852997239308</v>
+        <v>0.1178197738317093</v>
       </c>
       <c r="J17">
-        <v>0.1419852997239308</v>
+        <v>0.1178197738317093</v>
       </c>
       <c r="K17">
         <v>1</v>
       </c>
       <c r="L17">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M17">
-        <v>1.88934761210022</v>
+        <v>0.4642293333333333</v>
       </c>
       <c r="N17">
-        <v>1.88934761210022</v>
+        <v>1.392688</v>
       </c>
       <c r="O17">
-        <v>0.1360821909053496</v>
+        <v>0.02634596314109922</v>
       </c>
       <c r="P17">
-        <v>0.1360821909053496</v>
+        <v>0.02634596314109922</v>
       </c>
       <c r="Q17">
-        <v>5.240056502853819</v>
+        <v>1.291756496291556</v>
       </c>
       <c r="R17">
-        <v>5.240056502853819</v>
+        <v>11.625808466624</v>
       </c>
       <c r="S17">
-        <v>0.01932167066278524</v>
+        <v>0.00310407541866286</v>
       </c>
       <c r="T17">
-        <v>0.01932167066278524</v>
+        <v>0.00310407541866286</v>
       </c>
     </row>
     <row r="18" spans="1:20">
       <c r="A18" t="s">
+        <v>22</v>
+      </c>
+      <c r="B18" t="s">
+        <v>26</v>
+      </c>
+      <c r="C18" t="s">
+        <v>27</v>
+      </c>
+      <c r="D18" t="s">
         <v>24</v>
       </c>
-      <c r="B18" t="s">
-        <v>26</v>
-      </c>
-      <c r="C18" t="s">
-        <v>27</v>
-      </c>
-      <c r="D18" t="s">
-        <v>20</v>
-      </c>
       <c r="E18">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F18">
         <v>1</v>
       </c>
       <c r="G18">
-        <v>0.322839786556123</v>
+        <v>2.782582666666667</v>
       </c>
       <c r="H18">
-        <v>0.322839786556123</v>
+        <v>8.347748000000001</v>
       </c>
       <c r="I18">
-        <v>0.01652746831208162</v>
+        <v>0.1178197738317093</v>
       </c>
       <c r="J18">
-        <v>0.01652746831208162</v>
+        <v>0.1178197738317093</v>
       </c>
       <c r="K18">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L18">
         <v>1</v>
       </c>
       <c r="M18">
-        <v>6.30576633262227</v>
+        <v>0.3736923333333333</v>
       </c>
       <c r="N18">
-        <v>6.30576633262227</v>
+        <v>1.121077</v>
       </c>
       <c r="O18">
-        <v>0.4541792586947799</v>
+        <v>0.02120780341349541</v>
       </c>
       <c r="P18">
-        <v>0.4541792586947799</v>
+        <v>0.02120780341349541</v>
       </c>
       <c r="Q18">
-        <v>2.03575225689656</v>
+        <v>1.039829809399556</v>
       </c>
       <c r="R18">
-        <v>2.03575225689656</v>
+        <v>9.358468284596002</v>
       </c>
       <c r="S18">
-        <v>0.007506433306082694</v>
+        <v>0.002498698601645381</v>
       </c>
       <c r="T18">
-        <v>0.007506433306082694</v>
+        <v>0.002498698601645382</v>
       </c>
     </row>
     <row r="19" spans="1:20">
       <c r="A19" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="B19" t="s">
         <v>26</v>
@@ -1588,60 +1588,60 @@
         <v>27</v>
       </c>
       <c r="D19" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="E19">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F19">
         <v>1</v>
       </c>
       <c r="G19">
-        <v>0.322839786556123</v>
+        <v>2.782582666666667</v>
       </c>
       <c r="H19">
-        <v>0.322839786556123</v>
+        <v>8.347748000000001</v>
       </c>
       <c r="I19">
-        <v>0.01652746831208162</v>
+        <v>0.1178197738317093</v>
       </c>
       <c r="J19">
-        <v>0.01652746831208162</v>
+        <v>0.1178197738317093</v>
       </c>
       <c r="K19">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L19">
         <v>1</v>
       </c>
       <c r="M19">
-        <v>5.36147723689372</v>
+        <v>1.896302666666666</v>
       </c>
       <c r="N19">
-        <v>5.36147723689372</v>
+        <v>5.688908</v>
       </c>
       <c r="O19">
-        <v>0.386165872395829</v>
+        <v>0.1076190506998728</v>
       </c>
       <c r="P19">
-        <v>0.386165872395829</v>
+        <v>0.1076190506998728</v>
       </c>
       <c r="Q19">
-        <v>1.73089816678428</v>
+        <v>5.276618931020444</v>
       </c>
       <c r="R19">
-        <v>1.73089816678428</v>
+        <v>47.489570379184</v>
       </c>
       <c r="S19">
-        <v>0.006382344219229417</v>
+        <v>0.01267965221344227</v>
       </c>
       <c r="T19">
-        <v>0.006382344219229417</v>
+        <v>0.01267965221344227</v>
       </c>
     </row>
     <row r="20" spans="1:20">
       <c r="A20" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B20" t="s">
         <v>26</v>
@@ -1650,60 +1650,60 @@
         <v>27</v>
       </c>
       <c r="D20" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="E20">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F20">
         <v>1</v>
       </c>
       <c r="G20">
-        <v>0.322839786556123</v>
+        <v>2.906420333333333</v>
       </c>
       <c r="H20">
-        <v>0.322839786556123</v>
+        <v>8.719260999999999</v>
       </c>
       <c r="I20">
-        <v>0.01652746831208162</v>
+        <v>0.1230632931180533</v>
       </c>
       <c r="J20">
-        <v>0.01652746831208162</v>
+        <v>0.1230632931180533</v>
       </c>
       <c r="K20">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L20">
         <v>1</v>
       </c>
       <c r="M20">
-        <v>0.32728002541288</v>
+        <v>9.406579333333333</v>
       </c>
       <c r="N20">
-        <v>0.32728002541288</v>
+        <v>28.219738</v>
       </c>
       <c r="O20">
-        <v>0.02357267800404152</v>
+        <v>0.5338425959005011</v>
       </c>
       <c r="P20">
-        <v>0.02357267800404152</v>
+        <v>0.5338425959005011</v>
       </c>
       <c r="Q20">
-        <v>0.1056590135483767</v>
+        <v>27.33947344151311</v>
       </c>
       <c r="R20">
-        <v>0.1056590135483767</v>
+        <v>246.055260973618</v>
       </c>
       <c r="S20">
-        <v>0.0003895966887426995</v>
+        <v>0.06569642785820584</v>
       </c>
       <c r="T20">
-        <v>0.0003895966887426995</v>
+        <v>0.06569642785820586</v>
       </c>
     </row>
     <row r="21" spans="1:20">
       <c r="A21" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B21" t="s">
         <v>26</v>
@@ -1712,60 +1712,60 @@
         <v>27</v>
       </c>
       <c r="D21" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="E21">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F21">
         <v>1</v>
       </c>
       <c r="G21">
-        <v>0.322839786556123</v>
+        <v>2.906420333333333</v>
       </c>
       <c r="H21">
-        <v>0.322839786556123</v>
+        <v>8.719260999999999</v>
       </c>
       <c r="I21">
-        <v>0.01652746831208162</v>
+        <v>0.1230632931180533</v>
       </c>
       <c r="J21">
-        <v>0.01652746831208162</v>
+        <v>0.1230632931180533</v>
       </c>
       <c r="K21">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L21">
         <v>1</v>
       </c>
       <c r="M21">
-        <v>1.88934761210022</v>
+        <v>5.394797999999999</v>
       </c>
       <c r="N21">
-        <v>1.88934761210022</v>
+        <v>16.184394</v>
       </c>
       <c r="O21">
-        <v>0.1360821909053496</v>
+        <v>0.3061658086987375</v>
       </c>
       <c r="P21">
-        <v>0.1360821909053496</v>
+        <v>0.3061658086987375</v>
       </c>
       <c r="Q21">
-        <v>0.6099565798207557</v>
+        <v>15.679550601426</v>
       </c>
       <c r="R21">
-        <v>0.6099565798207557</v>
+        <v>141.115955412834</v>
       </c>
       <c r="S21">
-        <v>0.002249094098026808</v>
+        <v>0.03767777265861856</v>
       </c>
       <c r="T21">
-        <v>0.002249094098026808</v>
+        <v>0.03767777265861857</v>
       </c>
     </row>
     <row r="22" spans="1:20">
       <c r="A22" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="B22" t="s">
         <v>26</v>
@@ -1774,60 +1774,60 @@
         <v>27</v>
       </c>
       <c r="D22" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="E22">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F22">
         <v>1</v>
       </c>
       <c r="G22">
-        <v>0.23201747786784</v>
+        <v>2.906420333333333</v>
       </c>
       <c r="H22">
-        <v>0.23201747786784</v>
+        <v>8.719260999999999</v>
       </c>
       <c r="I22">
-        <v>0.01187790871198337</v>
+        <v>0.1230632931180533</v>
       </c>
       <c r="J22">
-        <v>0.01187790871198337</v>
+        <v>0.1230632931180533</v>
       </c>
       <c r="K22">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L22">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M22">
-        <v>6.30576633262227</v>
+        <v>0.08490933333333334</v>
       </c>
       <c r="N22">
-        <v>6.30576633262227</v>
+        <v>0.254728</v>
       </c>
       <c r="O22">
-        <v>0.4541792586947799</v>
+        <v>0.004818778146294018</v>
       </c>
       <c r="P22">
-        <v>0.4541792586947799</v>
+        <v>0.004818778146294018</v>
       </c>
       <c r="Q22">
-        <v>1.463048000518958</v>
+        <v>0.2467822128897778</v>
       </c>
       <c r="R22">
-        <v>1.463048000518958</v>
+        <v>2.221039916008</v>
       </c>
       <c r="S22">
-        <v>0.005394699773652873</v>
+        <v>0.0005930147074882502</v>
       </c>
       <c r="T22">
-        <v>0.005394699773652873</v>
+        <v>0.0005930147074882503</v>
       </c>
     </row>
     <row r="23" spans="1:20">
       <c r="A23" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="B23" t="s">
         <v>26</v>
@@ -1836,60 +1836,60 @@
         <v>27</v>
       </c>
       <c r="D23" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="E23">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F23">
         <v>1</v>
       </c>
       <c r="G23">
-        <v>0.23201747786784</v>
+        <v>2.906420333333333</v>
       </c>
       <c r="H23">
-        <v>0.23201747786784</v>
+        <v>8.719260999999999</v>
       </c>
       <c r="I23">
-        <v>0.01187790871198337</v>
+        <v>0.1230632931180533</v>
       </c>
       <c r="J23">
-        <v>0.01187790871198337</v>
+        <v>0.1230632931180533</v>
       </c>
       <c r="K23">
         <v>1</v>
       </c>
       <c r="L23">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M23">
-        <v>5.36147723689372</v>
+        <v>0.4642293333333333</v>
       </c>
       <c r="N23">
-        <v>5.36147723689372</v>
+        <v>1.392688</v>
       </c>
       <c r="O23">
-        <v>0.386165872395829</v>
+        <v>0.02634596314109922</v>
       </c>
       <c r="P23">
-        <v>0.386165872395829</v>
+        <v>0.02634596314109922</v>
       </c>
       <c r="Q23">
-        <v>1.243956426149917</v>
+        <v>1.349245573729778</v>
       </c>
       <c r="R23">
-        <v>1.243956426149917</v>
+        <v>12.143210163568</v>
       </c>
       <c r="S23">
-        <v>0.004586842980001074</v>
+        <v>0.003242220984510522</v>
       </c>
       <c r="T23">
-        <v>0.004586842980001074</v>
+        <v>0.003242220984510522</v>
       </c>
     </row>
     <row r="24" spans="1:20">
       <c r="A24" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="B24" t="s">
         <v>26</v>
@@ -1901,57 +1901,57 @@
         <v>24</v>
       </c>
       <c r="E24">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F24">
         <v>1</v>
       </c>
       <c r="G24">
-        <v>0.23201747786784</v>
+        <v>2.906420333333333</v>
       </c>
       <c r="H24">
-        <v>0.23201747786784</v>
+        <v>8.719260999999999</v>
       </c>
       <c r="I24">
-        <v>0.01187790871198337</v>
+        <v>0.1230632931180533</v>
       </c>
       <c r="J24">
-        <v>0.01187790871198337</v>
+        <v>0.1230632931180533</v>
       </c>
       <c r="K24">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L24">
         <v>1</v>
       </c>
       <c r="M24">
-        <v>0.32728002541288</v>
+        <v>0.3736923333333333</v>
       </c>
       <c r="N24">
-        <v>0.32728002541288</v>
+        <v>1.121077</v>
       </c>
       <c r="O24">
-        <v>0.02357267800404152</v>
+        <v>0.02120780341349541</v>
       </c>
       <c r="P24">
-        <v>0.02357267800404152</v>
+        <v>0.02120780341349541</v>
       </c>
       <c r="Q24">
-        <v>0.07593468605281899</v>
+        <v>1.086106996010778</v>
       </c>
       <c r="R24">
-        <v>0.07593468605281899</v>
+        <v>9.774962964097</v>
       </c>
       <c r="S24">
-        <v>0.0002799941174289834</v>
+        <v>0.002609902127865037</v>
       </c>
       <c r="T24">
-        <v>0.0002799941174289834</v>
+        <v>0.002609902127865037</v>
       </c>
     </row>
     <row r="25" spans="1:20">
       <c r="A25" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="B25" t="s">
         <v>26</v>
@@ -1963,52 +1963,796 @@
         <v>25</v>
       </c>
       <c r="E25">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F25">
         <v>1</v>
       </c>
       <c r="G25">
-        <v>0.23201747786784</v>
+        <v>2.906420333333333</v>
       </c>
       <c r="H25">
-        <v>0.23201747786784</v>
+        <v>8.719260999999999</v>
       </c>
       <c r="I25">
-        <v>0.01187790871198337</v>
+        <v>0.1230632931180533</v>
       </c>
       <c r="J25">
-        <v>0.01187790871198337</v>
+        <v>0.1230632931180533</v>
       </c>
       <c r="K25">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L25">
         <v>1</v>
       </c>
       <c r="M25">
-        <v>1.88934761210022</v>
+        <v>1.896302666666666</v>
       </c>
       <c r="N25">
-        <v>1.88934761210022</v>
+        <v>5.688908</v>
       </c>
       <c r="O25">
-        <v>0.1360821909053496</v>
+        <v>0.1076190506998728</v>
       </c>
       <c r="P25">
-        <v>0.1360821909053496</v>
+        <v>0.1076190506998728</v>
       </c>
       <c r="Q25">
-        <v>0.4383616677751191</v>
+        <v>5.511452628554221</v>
       </c>
       <c r="R25">
-        <v>0.4383616677751191</v>
+        <v>49.60307365698799</v>
       </c>
       <c r="S25">
-        <v>0.001616371840900436</v>
+        <v>0.01324395478136509</v>
       </c>
       <c r="T25">
-        <v>0.001616371840900436</v>
+        <v>0.01324395478136509</v>
+      </c>
+    </row>
+    <row r="26" spans="1:20">
+      <c r="A26" t="s">
+        <v>24</v>
+      </c>
+      <c r="B26" t="s">
+        <v>26</v>
+      </c>
+      <c r="C26" t="s">
+        <v>27</v>
+      </c>
+      <c r="D26" t="s">
+        <v>20</v>
+      </c>
+      <c r="E26">
+        <v>3</v>
+      </c>
+      <c r="F26">
+        <v>1</v>
+      </c>
+      <c r="G26">
+        <v>0.3953666666666667</v>
+      </c>
+      <c r="H26">
+        <v>1.1861</v>
+      </c>
+      <c r="I26">
+        <v>0.01674056688603805</v>
+      </c>
+      <c r="J26">
+        <v>0.01674056688603805</v>
+      </c>
+      <c r="K26">
+        <v>3</v>
+      </c>
+      <c r="L26">
+        <v>1</v>
+      </c>
+      <c r="M26">
+        <v>9.406579333333333</v>
+      </c>
+      <c r="N26">
+        <v>28.219738</v>
+      </c>
+      <c r="O26">
+        <v>0.5338425959005011</v>
+      </c>
+      <c r="P26">
+        <v>0.5338425959005011</v>
+      </c>
+      <c r="Q26">
+        <v>3.719047915755556</v>
+      </c>
+      <c r="R26">
+        <v>33.4714312418</v>
+      </c>
+      <c r="S26">
+        <v>0.008936827683288523</v>
+      </c>
+      <c r="T26">
+        <v>0.008936827683288523</v>
+      </c>
+    </row>
+    <row r="27" spans="1:20">
+      <c r="A27" t="s">
+        <v>24</v>
+      </c>
+      <c r="B27" t="s">
+        <v>26</v>
+      </c>
+      <c r="C27" t="s">
+        <v>27</v>
+      </c>
+      <c r="D27" t="s">
+        <v>21</v>
+      </c>
+      <c r="E27">
+        <v>3</v>
+      </c>
+      <c r="F27">
+        <v>1</v>
+      </c>
+      <c r="G27">
+        <v>0.3953666666666667</v>
+      </c>
+      <c r="H27">
+        <v>1.1861</v>
+      </c>
+      <c r="I27">
+        <v>0.01674056688603805</v>
+      </c>
+      <c r="J27">
+        <v>0.01674056688603805</v>
+      </c>
+      <c r="K27">
+        <v>3</v>
+      </c>
+      <c r="L27">
+        <v>1</v>
+      </c>
+      <c r="M27">
+        <v>5.394797999999999</v>
+      </c>
+      <c r="N27">
+        <v>16.184394</v>
+      </c>
+      <c r="O27">
+        <v>0.3061658086987375</v>
+      </c>
+      <c r="P27">
+        <v>0.3061658086987375</v>
+      </c>
+      <c r="Q27">
+        <v>2.1329233026</v>
+      </c>
+      <c r="R27">
+        <v>19.1963097234</v>
+      </c>
+      <c r="S27">
+        <v>0.005125389198739147</v>
+      </c>
+      <c r="T27">
+        <v>0.005125389198739147</v>
+      </c>
+    </row>
+    <row r="28" spans="1:20">
+      <c r="A28" t="s">
+        <v>24</v>
+      </c>
+      <c r="B28" t="s">
+        <v>26</v>
+      </c>
+      <c r="C28" t="s">
+        <v>27</v>
+      </c>
+      <c r="D28" t="s">
+        <v>22</v>
+      </c>
+      <c r="E28">
+        <v>3</v>
+      </c>
+      <c r="F28">
+        <v>1</v>
+      </c>
+      <c r="G28">
+        <v>0.3953666666666667</v>
+      </c>
+      <c r="H28">
+        <v>1.1861</v>
+      </c>
+      <c r="I28">
+        <v>0.01674056688603805</v>
+      </c>
+      <c r="J28">
+        <v>0.01674056688603805</v>
+      </c>
+      <c r="K28">
+        <v>2</v>
+      </c>
+      <c r="L28">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M28">
+        <v>0.08490933333333334</v>
+      </c>
+      <c r="N28">
+        <v>0.254728</v>
+      </c>
+      <c r="O28">
+        <v>0.004818778146294018</v>
+      </c>
+      <c r="P28">
+        <v>0.004818778146294018</v>
+      </c>
+      <c r="Q28">
+        <v>0.03357032008888889</v>
+      </c>
+      <c r="R28">
+        <v>0.3021328808000001</v>
+      </c>
+      <c r="S28">
+        <v>8.066907786701347E-05</v>
+      </c>
+      <c r="T28">
+        <v>8.066907786701347E-05</v>
+      </c>
+    </row>
+    <row r="29" spans="1:20">
+      <c r="A29" t="s">
+        <v>24</v>
+      </c>
+      <c r="B29" t="s">
+        <v>26</v>
+      </c>
+      <c r="C29" t="s">
+        <v>27</v>
+      </c>
+      <c r="D29" t="s">
+        <v>23</v>
+      </c>
+      <c r="E29">
+        <v>3</v>
+      </c>
+      <c r="F29">
+        <v>1</v>
+      </c>
+      <c r="G29">
+        <v>0.3953666666666667</v>
+      </c>
+      <c r="H29">
+        <v>1.1861</v>
+      </c>
+      <c r="I29">
+        <v>0.01674056688603805</v>
+      </c>
+      <c r="J29">
+        <v>0.01674056688603805</v>
+      </c>
+      <c r="K29">
+        <v>1</v>
+      </c>
+      <c r="L29">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M29">
+        <v>0.4642293333333333</v>
+      </c>
+      <c r="N29">
+        <v>1.392688</v>
+      </c>
+      <c r="O29">
+        <v>0.02634596314109922</v>
+      </c>
+      <c r="P29">
+        <v>0.02634596314109922</v>
+      </c>
+      <c r="Q29">
+        <v>0.1835408040888889</v>
+      </c>
+      <c r="R29">
+        <v>1.6518672368</v>
+      </c>
+      <c r="S29">
+        <v>0.0004410463581406648</v>
+      </c>
+      <c r="T29">
+        <v>0.0004410463581406647</v>
+      </c>
+    </row>
+    <row r="30" spans="1:20">
+      <c r="A30" t="s">
+        <v>24</v>
+      </c>
+      <c r="B30" t="s">
+        <v>26</v>
+      </c>
+      <c r="C30" t="s">
+        <v>27</v>
+      </c>
+      <c r="D30" t="s">
+        <v>24</v>
+      </c>
+      <c r="E30">
+        <v>3</v>
+      </c>
+      <c r="F30">
+        <v>1</v>
+      </c>
+      <c r="G30">
+        <v>0.3953666666666667</v>
+      </c>
+      <c r="H30">
+        <v>1.1861</v>
+      </c>
+      <c r="I30">
+        <v>0.01674056688603805</v>
+      </c>
+      <c r="J30">
+        <v>0.01674056688603805</v>
+      </c>
+      <c r="K30">
+        <v>3</v>
+      </c>
+      <c r="L30">
+        <v>1</v>
+      </c>
+      <c r="M30">
+        <v>0.3736923333333333</v>
+      </c>
+      <c r="N30">
+        <v>1.121077</v>
+      </c>
+      <c r="O30">
+        <v>0.02120780341349541</v>
+      </c>
+      <c r="P30">
+        <v>0.02120780341349541</v>
+      </c>
+      <c r="Q30">
+        <v>0.1477454921888889</v>
+      </c>
+      <c r="R30">
+        <v>1.3297094297</v>
+      </c>
+      <c r="S30">
+        <v>0.000355030651549566</v>
+      </c>
+      <c r="T30">
+        <v>0.000355030651549566</v>
+      </c>
+    </row>
+    <row r="31" spans="1:20">
+      <c r="A31" t="s">
+        <v>24</v>
+      </c>
+      <c r="B31" t="s">
+        <v>26</v>
+      </c>
+      <c r="C31" t="s">
+        <v>27</v>
+      </c>
+      <c r="D31" t="s">
+        <v>25</v>
+      </c>
+      <c r="E31">
+        <v>3</v>
+      </c>
+      <c r="F31">
+        <v>1</v>
+      </c>
+      <c r="G31">
+        <v>0.3953666666666667</v>
+      </c>
+      <c r="H31">
+        <v>1.1861</v>
+      </c>
+      <c r="I31">
+        <v>0.01674056688603805</v>
+      </c>
+      <c r="J31">
+        <v>0.01674056688603805</v>
+      </c>
+      <c r="K31">
+        <v>3</v>
+      </c>
+      <c r="L31">
+        <v>1</v>
+      </c>
+      <c r="M31">
+        <v>1.896302666666666</v>
+      </c>
+      <c r="N31">
+        <v>5.688908</v>
+      </c>
+      <c r="O31">
+        <v>0.1076190506998728</v>
+      </c>
+      <c r="P31">
+        <v>0.1076190506998728</v>
+      </c>
+      <c r="Q31">
+        <v>0.7497348643111111</v>
+      </c>
+      <c r="R31">
+        <v>6.747613778800001</v>
+      </c>
+      <c r="S31">
+        <v>0.001801603916453141</v>
+      </c>
+      <c r="T31">
+        <v>0.001801603916453141</v>
+      </c>
+    </row>
+    <row r="32" spans="1:20">
+      <c r="A32" t="s">
+        <v>25</v>
+      </c>
+      <c r="B32" t="s">
+        <v>26</v>
+      </c>
+      <c r="C32" t="s">
+        <v>27</v>
+      </c>
+      <c r="D32" t="s">
+        <v>20</v>
+      </c>
+      <c r="E32">
+        <v>3</v>
+      </c>
+      <c r="F32">
+        <v>1</v>
+      </c>
+      <c r="G32">
+        <v>0.2551576666666667</v>
+      </c>
+      <c r="H32">
+        <v>0.765473</v>
+      </c>
+      <c r="I32">
+        <v>0.01080385461255898</v>
+      </c>
+      <c r="J32">
+        <v>0.01080385461255898</v>
+      </c>
+      <c r="K32">
+        <v>3</v>
+      </c>
+      <c r="L32">
+        <v>1</v>
+      </c>
+      <c r="M32">
+        <v>9.406579333333333</v>
+      </c>
+      <c r="N32">
+        <v>28.219738</v>
+      </c>
+      <c r="O32">
+        <v>0.5338425959005011</v>
+      </c>
+      <c r="P32">
+        <v>0.5338425959005011</v>
+      </c>
+      <c r="Q32">
+        <v>2.400160834008222</v>
+      </c>
+      <c r="R32">
+        <v>21.601447506074</v>
+      </c>
+      <c r="S32">
+        <v>0.005767557792100088</v>
+      </c>
+      <c r="T32">
+        <v>0.005767557792100088</v>
+      </c>
+    </row>
+    <row r="33" spans="1:20">
+      <c r="A33" t="s">
+        <v>25</v>
+      </c>
+      <c r="B33" t="s">
+        <v>26</v>
+      </c>
+      <c r="C33" t="s">
+        <v>27</v>
+      </c>
+      <c r="D33" t="s">
+        <v>21</v>
+      </c>
+      <c r="E33">
+        <v>3</v>
+      </c>
+      <c r="F33">
+        <v>1</v>
+      </c>
+      <c r="G33">
+        <v>0.2551576666666667</v>
+      </c>
+      <c r="H33">
+        <v>0.765473</v>
+      </c>
+      <c r="I33">
+        <v>0.01080385461255898</v>
+      </c>
+      <c r="J33">
+        <v>0.01080385461255898</v>
+      </c>
+      <c r="K33">
+        <v>3</v>
+      </c>
+      <c r="L33">
+        <v>1</v>
+      </c>
+      <c r="M33">
+        <v>5.394797999999999</v>
+      </c>
+      <c r="N33">
+        <v>16.184394</v>
+      </c>
+      <c r="O33">
+        <v>0.3061658086987375</v>
+      </c>
+      <c r="P33">
+        <v>0.3061658086987375</v>
+      </c>
+      <c r="Q33">
+        <v>1.376524069818</v>
+      </c>
+      <c r="R33">
+        <v>12.388716628362</v>
+      </c>
+      <c r="S33">
+        <v>0.003307770884517705</v>
+      </c>
+      <c r="T33">
+        <v>0.003307770884517705</v>
+      </c>
+    </row>
+    <row r="34" spans="1:20">
+      <c r="A34" t="s">
+        <v>25</v>
+      </c>
+      <c r="B34" t="s">
+        <v>26</v>
+      </c>
+      <c r="C34" t="s">
+        <v>27</v>
+      </c>
+      <c r="D34" t="s">
+        <v>22</v>
+      </c>
+      <c r="E34">
+        <v>3</v>
+      </c>
+      <c r="F34">
+        <v>1</v>
+      </c>
+      <c r="G34">
+        <v>0.2551576666666667</v>
+      </c>
+      <c r="H34">
+        <v>0.765473</v>
+      </c>
+      <c r="I34">
+        <v>0.01080385461255898</v>
+      </c>
+      <c r="J34">
+        <v>0.01080385461255898</v>
+      </c>
+      <c r="K34">
+        <v>2</v>
+      </c>
+      <c r="L34">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M34">
+        <v>0.08490933333333334</v>
+      </c>
+      <c r="N34">
+        <v>0.254728</v>
+      </c>
+      <c r="O34">
+        <v>0.004818778146294018</v>
+      </c>
+      <c r="P34">
+        <v>0.004818778146294018</v>
+      </c>
+      <c r="Q34">
+        <v>0.02166526737155556</v>
+      </c>
+      <c r="R34">
+        <v>0.194987406344</v>
+      </c>
+      <c r="S34">
+        <v>5.206137850273703E-05</v>
+      </c>
+      <c r="T34">
+        <v>5.206137850273703E-05</v>
+      </c>
+    </row>
+    <row r="35" spans="1:20">
+      <c r="A35" t="s">
+        <v>25</v>
+      </c>
+      <c r="B35" t="s">
+        <v>26</v>
+      </c>
+      <c r="C35" t="s">
+        <v>27</v>
+      </c>
+      <c r="D35" t="s">
+        <v>23</v>
+      </c>
+      <c r="E35">
+        <v>3</v>
+      </c>
+      <c r="F35">
+        <v>1</v>
+      </c>
+      <c r="G35">
+        <v>0.2551576666666667</v>
+      </c>
+      <c r="H35">
+        <v>0.765473</v>
+      </c>
+      <c r="I35">
+        <v>0.01080385461255898</v>
+      </c>
+      <c r="J35">
+        <v>0.01080385461255898</v>
+      </c>
+      <c r="K35">
+        <v>1</v>
+      </c>
+      <c r="L35">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M35">
+        <v>0.4642293333333333</v>
+      </c>
+      <c r="N35">
+        <v>1.392688</v>
+      </c>
+      <c r="O35">
+        <v>0.02634596314109922</v>
+      </c>
+      <c r="P35">
+        <v>0.02634596314109922</v>
+      </c>
+      <c r="Q35">
+        <v>0.1184516734915556</v>
+      </c>
+      <c r="R35">
+        <v>1.066065061424</v>
+      </c>
+      <c r="S35">
+        <v>0.0002846379554042737</v>
+      </c>
+      <c r="T35">
+        <v>0.0002846379554042737</v>
+      </c>
+    </row>
+    <row r="36" spans="1:20">
+      <c r="A36" t="s">
+        <v>25</v>
+      </c>
+      <c r="B36" t="s">
+        <v>26</v>
+      </c>
+      <c r="C36" t="s">
+        <v>27</v>
+      </c>
+      <c r="D36" t="s">
+        <v>24</v>
+      </c>
+      <c r="E36">
+        <v>3</v>
+      </c>
+      <c r="F36">
+        <v>1</v>
+      </c>
+      <c r="G36">
+        <v>0.2551576666666667</v>
+      </c>
+      <c r="H36">
+        <v>0.765473</v>
+      </c>
+      <c r="I36">
+        <v>0.01080385461255898</v>
+      </c>
+      <c r="J36">
+        <v>0.01080385461255898</v>
+      </c>
+      <c r="K36">
+        <v>3</v>
+      </c>
+      <c r="L36">
+        <v>1</v>
+      </c>
+      <c r="M36">
+        <v>0.3736923333333333</v>
+      </c>
+      <c r="N36">
+        <v>1.121077</v>
+      </c>
+      <c r="O36">
+        <v>0.02120780341349541</v>
+      </c>
+      <c r="P36">
+        <v>0.02120780341349541</v>
+      </c>
+      <c r="Q36">
+        <v>0.09535046382455556</v>
+      </c>
+      <c r="R36">
+        <v>0.8581541744210001</v>
+      </c>
+      <c r="S36">
+        <v>0.0002291260247311364</v>
+      </c>
+      <c r="T36">
+        <v>0.0002291260247311364</v>
+      </c>
+    </row>
+    <row r="37" spans="1:20">
+      <c r="A37" t="s">
+        <v>25</v>
+      </c>
+      <c r="B37" t="s">
+        <v>26</v>
+      </c>
+      <c r="C37" t="s">
+        <v>27</v>
+      </c>
+      <c r="D37" t="s">
+        <v>25</v>
+      </c>
+      <c r="E37">
+        <v>3</v>
+      </c>
+      <c r="F37">
+        <v>1</v>
+      </c>
+      <c r="G37">
+        <v>0.2551576666666667</v>
+      </c>
+      <c r="H37">
+        <v>0.765473</v>
+      </c>
+      <c r="I37">
+        <v>0.01080385461255898</v>
+      </c>
+      <c r="J37">
+        <v>0.01080385461255898</v>
+      </c>
+      <c r="K37">
+        <v>3</v>
+      </c>
+      <c r="L37">
+        <v>1</v>
+      </c>
+      <c r="M37">
+        <v>1.896302666666666</v>
+      </c>
+      <c r="N37">
+        <v>5.688908</v>
+      </c>
+      <c r="O37">
+        <v>0.1076190506998728</v>
+      </c>
+      <c r="P37">
+        <v>0.1076190506998728</v>
+      </c>
+      <c r="Q37">
+        <v>0.4838561637204444</v>
+      </c>
+      <c r="R37">
+        <v>4.354705473484</v>
+      </c>
+      <c r="S37">
+        <v>0.00116270057730304</v>
+      </c>
+      <c r="T37">
+        <v>0.00116270057730304</v>
       </c>
     </row>
   </sheetData>
